--- a/data/trans_orig/IP07A23_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B81C865-504D-4A49-8DA6-3D1A094DEB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F52E57-87CF-496E-8674-4D1880AE1962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF6EA307-F3DA-48DF-8860-B424F260548B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AA2E73E-3134-432E-A88B-6BCC98AD8C58}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
   <si>
     <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>72,94%</t>
   </si>
   <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>77,39%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>23,73%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -152,13 +152,13 @@
     <t>3,33%</t>
   </si>
   <si>
-    <t>20,66%</t>
+    <t>16,98%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>7,67%</t>
+    <t>8,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,289 +167,286 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>77,66%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -864,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1736A8F3-B977-4B83-BE15-378AECA31ED1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6342DAAA-8FFD-4CFD-A878-B52F46008197}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1882,7 +1879,7 @@
         <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -1891,13 +1888,13 @@
         <v>7460</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1909,13 @@
         <v>4973</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -1933,7 +1930,7 @@
         <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -1942,13 +1939,13 @@
         <v>8174</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,7 +2001,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A23_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F52E57-87CF-496E-8674-4D1880AE1962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61202063-9F99-4AD5-90F1-C14F3467E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AA2E73E-3134-432E-A88B-6BCC98AD8C58}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CE354BC1-8313-407E-B510-51DCB1226D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
-  <si>
-    <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
+  <si>
+    <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,382 +71,523 @@
     <t>Siempre</t>
   </si>
   <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -861,8 +1002,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6342DAAA-8FFD-4CFD-A878-B52F46008197}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F2E206-C03E-46D1-A786-018DD681E00E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -979,10 +1120,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>18032</v>
+        <v>2512</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -994,127 +1135,127 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22756</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2512</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>53</v>
-      </c>
-      <c r="N4" s="7">
-        <v>40788</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>515</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5866</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>910</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1424</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5227</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>11092</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1198</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2983</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4181</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>31</v>
@@ -1123,897 +1264,1101 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4908</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>824</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7191</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>824</v>
+        <v>12099</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>19450</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7">
+        <v>16451</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>43</v>
+      </c>
+      <c r="N8" s="7">
+        <v>35900</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7">
-        <v>24722</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="C9" s="7">
         <v>34</v>
       </c>
-      <c r="I8" s="7">
-        <v>27983</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="7">
-        <v>66</v>
-      </c>
-      <c r="N8" s="7">
-        <v>52705</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="7">
+        <v>28582</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
+        <v>33</v>
+      </c>
+      <c r="I9" s="7">
+        <v>27535</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="7">
+        <v>67</v>
+      </c>
+      <c r="N9" s="7">
+        <v>56116</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7">
-        <v>264</v>
-      </c>
-      <c r="D9" s="7">
-        <v>227686</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="7">
-        <v>269</v>
-      </c>
-      <c r="I9" s="7">
-        <v>195169</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="7">
-        <v>533</v>
-      </c>
-      <c r="N9" s="7">
-        <v>422855</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5437</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9360</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="7">
+        <v>19</v>
+      </c>
+      <c r="N10" s="7">
+        <v>14797</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="7">
-        <v>59499</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>51</v>
-      </c>
-      <c r="I10" s="7">
-        <v>48579</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>113</v>
-      </c>
-      <c r="N10" s="7">
-        <v>108078</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>3403</v>
+        <v>4823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>3320</v>
+        <v>8292</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>6723</v>
+        <v>13115</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>3633</v>
+        <v>10796</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I12" s="7">
-        <v>3202</v>
+        <v>19294</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N12" s="7">
-        <v>6835</v>
+        <v>30090</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
-        <v>334</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>294220</v>
+        <v>52434</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="I13" s="7">
-        <v>250271</v>
+        <v>71628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
-        <v>662</v>
+        <v>146</v>
       </c>
       <c r="N13" s="7">
-        <v>544491</v>
+        <v>124061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>81203</v>
+        <v>185748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>64677</v>
+        <v>200255</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
-        <v>192</v>
+        <v>449</v>
       </c>
       <c r="N14" s="7">
-        <v>145879</v>
+        <v>386003</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="D15" s="7">
-        <v>16175</v>
+        <v>259238</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
-        <v>23</v>
+        <v>333</v>
       </c>
       <c r="I15" s="7">
-        <v>17604</v>
+        <v>308828</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>42</v>
+        <v>659</v>
       </c>
       <c r="N15" s="7">
-        <v>33779</v>
+        <v>568066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>737</v>
+        <v>1609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>737</v>
+        <v>3263</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>515</v>
+        <v>617</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>515</v>
+        <v>1368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6084</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="7">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7085</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="7">
+        <v>16</v>
+      </c>
+      <c r="N18" s="7">
+        <v>13169</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="7">
-        <v>97893</v>
-      </c>
-      <c r="E18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
+        <v>14410</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="7">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7">
+        <v>14480</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" s="7">
         <v>41</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="7">
-        <v>114</v>
-      </c>
-      <c r="I18" s="7">
-        <v>83017</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="7">
-        <v>236</v>
-      </c>
-      <c r="N18" s="7">
-        <v>180910</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>390</v>
-      </c>
-      <c r="D19" s="7">
-        <v>326920</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>388</v>
-      </c>
-      <c r="I19" s="7">
-        <v>282602</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>778</v>
-      </c>
       <c r="N19" s="7">
-        <v>609522</v>
+        <v>28890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7">
-        <v>81539</v>
+        <v>58016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>71410</v>
+        <v>79017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N20" s="7">
-        <v>152949</v>
+        <v>137033</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D21" s="7">
-        <v>3403</v>
+        <v>80781</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="I21" s="7">
-        <v>4057</v>
+        <v>102943</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="N21" s="7">
-        <v>7460</v>
+        <v>183724</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>4973</v>
+        <v>9603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>3202</v>
+        <v>10969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N22" s="7">
-        <v>8174</v>
+        <v>20571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5955</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>9953</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" s="7">
+        <v>16</v>
+      </c>
+      <c r="N23" s="7">
+        <v>15908</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>18077</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7">
+        <v>29362</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="7">
+        <v>56</v>
+      </c>
+      <c r="N24" s="7">
+        <v>47440</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="7">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7">
+        <v>71752</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="7">
+        <v>107</v>
+      </c>
+      <c r="I25" s="7">
+        <v>93299</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" s="7">
+        <v>201</v>
+      </c>
+      <c r="N25" s="7">
+        <v>165051</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7">
+        <v>334</v>
+      </c>
+      <c r="D26" s="7">
+        <v>263214</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7">
+        <v>330</v>
+      </c>
+      <c r="I26" s="7">
+        <v>295723</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M26" s="7">
+        <v>664</v>
+      </c>
+      <c r="N26" s="7">
+        <v>558937</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C27" s="7">
+        <v>474</v>
+      </c>
+      <c r="D27" s="7">
+        <v>368601</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>488</v>
       </c>
-      <c r="D23" s="7">
-        <v>416835</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="7">
-        <v>476</v>
-      </c>
-      <c r="I23" s="7">
-        <v>361271</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="7">
-        <v>964</v>
-      </c>
-      <c r="N23" s="7">
-        <v>778106</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>137</v>
+      <c r="I27" s="7">
+        <v>439305</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="7">
+        <v>962</v>
+      </c>
+      <c r="N27" s="7">
+        <v>807906</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
